--- a/biology/Histoire de la zoologie et de la botanique/John_William_Scott_Macfie/John_William_Scott_Macfie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_William_Scott_Macfie/John_William_Scott_Macfie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John William Scott Macfie est un parasitologiste britannique, né pas loin de Liverpool le 16 septembre 1879 et mort le 11 octobre 1948.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts à Cambridge, son Bachelor of Medicine et son Doctorat of Sciences à Édimbourg. Macfie travaille en Afrique de l’Ouest de 1910 à 1923. Il dirige l’institut de recherche médicale à Lagos en 1913, puis celui d’Accra de 1914 à 1923. Il travaille, à partir de 1927, à la London School of Hygiene and Tropical Medicine. Il travaille, de 1935 à 1936 en Éthiopie. Durant la Première Guerre mondiale, il travaille à l’hôpital Saint-Pancas.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1936 : An Ethiopian Diary. A record of the British Ambulance Service in Ethiopia (University Press of Liverpool: Liverpool).</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
